--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.306435090271</v>
+        <v>158.4732740676879</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.7673514513374</v>
+        <v>216.8301249267404</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.7102568567335</v>
+        <v>196.136162126786</v>
       </c>
       <c r="AD2" t="n">
-        <v>115306.435090271</v>
+        <v>158473.2740676879</v>
       </c>
       <c r="AE2" t="n">
-        <v>157767.3514513374</v>
+        <v>216830.1249267404</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.160673652560859e-06</v>
+        <v>4.556630729855662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>142710.2568567335</v>
+        <v>196136.162126786</v>
       </c>
     </row>
     <row r="3">
@@ -2058,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.41264560430336</v>
+        <v>132.8608654402163</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.6525233752567</v>
+        <v>181.7860975029298</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.8014755303616</v>
+        <v>164.4366874956914</v>
       </c>
       <c r="AD3" t="n">
-        <v>98412.64560430337</v>
+        <v>132860.8654402163</v>
       </c>
       <c r="AE3" t="n">
-        <v>134652.5233752567</v>
+        <v>181786.0975029298</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.773388248083512e-06</v>
+        <v>5.439959558293083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.059895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>121801.4755303616</v>
+        <v>164436.6874956914</v>
       </c>
     </row>
     <row r="4">
@@ -2164,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.85884804793271</v>
+        <v>121.3923192298662</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.8441078410641</v>
+        <v>166.0943266213865</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.5017929874969</v>
+        <v>150.2425172035389</v>
       </c>
       <c r="AD4" t="n">
-        <v>86858.84804793271</v>
+        <v>121392.3192298662</v>
       </c>
       <c r="AE4" t="n">
-        <v>118844.1078410641</v>
+        <v>166094.3266213865</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.989997446043522e-06</v>
+        <v>5.752237330784484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.6171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>107501.7929874969</v>
+        <v>150242.5172035389</v>
       </c>
     </row>
     <row r="5">
@@ -2270,28 +2270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.60344373976505</v>
+        <v>121.1369149216986</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.4946523989865</v>
+        <v>165.7448711793089</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.1856890823472</v>
+        <v>149.9264132983892</v>
       </c>
       <c r="AD5" t="n">
-        <v>86603.44373976506</v>
+        <v>121136.9149216986</v>
       </c>
       <c r="AE5" t="n">
-        <v>118494.6523989865</v>
+        <v>165744.8711793089</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.990184178110728e-06</v>
+        <v>5.752506535760769e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.6171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>107185.6890823472</v>
+        <v>149926.4132983892</v>
       </c>
     </row>
   </sheetData>
@@ -2567,28 +2567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.12477528349186</v>
+        <v>140.1265522039348</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.2586465023803</v>
+        <v>191.727330672522</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.4451897134228</v>
+        <v>173.4291433241892</v>
       </c>
       <c r="AD2" t="n">
-        <v>98124.77528349185</v>
+        <v>140126.5522039348</v>
       </c>
       <c r="AE2" t="n">
-        <v>134258.6465023803</v>
+        <v>191727.330672522</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.637737221968432e-06</v>
+        <v>5.3255104450967e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>121445.1897134228</v>
+        <v>173429.1433241892</v>
       </c>
     </row>
     <row r="3">
@@ -2673,28 +2673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.72180252413246</v>
+        <v>117.2209045435519</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.5518637587218</v>
+        <v>160.3868130177463</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.6191946561695</v>
+        <v>145.0797206876827</v>
       </c>
       <c r="AD3" t="n">
-        <v>83721.80252413245</v>
+        <v>117220.9045435519</v>
       </c>
       <c r="AE3" t="n">
-        <v>114551.8637587218</v>
+        <v>160386.8130177463</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.199577143382286e-06</v>
+        <v>6.148022954217062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.486979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>103619.1946561695</v>
+        <v>145079.7206876827</v>
       </c>
     </row>
     <row r="4">
@@ -2779,28 +2779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.8881550207095</v>
+        <v>116.387257040129</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.4112304666069</v>
+        <v>159.2461797256314</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.5874218045648</v>
+        <v>144.047947836078</v>
       </c>
       <c r="AD4" t="n">
-        <v>82888.1550207095</v>
+        <v>116387.257040129</v>
       </c>
       <c r="AE4" t="n">
-        <v>113411.2304666069</v>
+        <v>159246.1797256314</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.27834290853838e-06</v>
+        <v>6.263333071319977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH4" t="n">
-        <v>102587.4218045648</v>
+        <v>144047.9478360779</v>
       </c>
     </row>
   </sheetData>
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.03023581117971</v>
+        <v>97.33219152245002</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2914346203189</v>
+        <v>133.1741984341956</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.62432226360241</v>
+        <v>120.4642398468329</v>
       </c>
       <c r="AD2" t="n">
-        <v>74030.23581117971</v>
+        <v>97332.19152245001</v>
       </c>
       <c r="AE2" t="n">
-        <v>101291.4346203189</v>
+        <v>133174.1984341956</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.866937062520211e-06</v>
+        <v>7.529752375947884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>91624.32226360241</v>
+        <v>120464.2398468329</v>
       </c>
     </row>
   </sheetData>
@@ -3373,28 +3373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.0590959330565</v>
+        <v>109.9743657794422</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.8038987798323</v>
+        <v>150.4717789859691</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.61068458052556</v>
+        <v>136.1109635880574</v>
       </c>
       <c r="AD2" t="n">
-        <v>78059.09593305649</v>
+        <v>109974.3657794422</v>
       </c>
       <c r="AE2" t="n">
-        <v>106803.8987798322</v>
+        <v>150471.7789859691</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.566909427086342e-06</v>
+        <v>6.901942671564758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>96610.68458052556</v>
+        <v>136110.9635880574</v>
       </c>
     </row>
     <row r="3">
@@ -3479,28 +3479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.36948777192909</v>
+        <v>101.4339738157136</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.8603464704133</v>
+        <v>138.7864379256995</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.75718357923328</v>
+        <v>125.540855078097</v>
       </c>
       <c r="AD3" t="n">
-        <v>77369.48777192908</v>
+        <v>101433.9738157136</v>
       </c>
       <c r="AE3" t="n">
-        <v>105860.3464704133</v>
+        <v>138786.4379256995</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.660503566913577e-06</v>
+        <v>7.043390930566934e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>95757.18357923329</v>
+        <v>125540.855078097</v>
       </c>
     </row>
   </sheetData>
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.59216264490951</v>
+        <v>101.6568169928815</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.95555535403284</v>
+        <v>139.0913417918476</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.60681463255364</v>
+        <v>125.8166593471953</v>
       </c>
       <c r="AD2" t="n">
-        <v>71592.16264490951</v>
+        <v>101656.8169928815</v>
       </c>
       <c r="AE2" t="n">
-        <v>97955.55535403284</v>
+        <v>139091.3417918476</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.959187833781588e-06</v>
+        <v>7.837936813144594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>88606.81463255364</v>
+        <v>125816.6593471953</v>
       </c>
     </row>
   </sheetData>
@@ -4073,28 +4073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.3792792102421</v>
+        <v>142.6648516178716</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.3433582366521</v>
+        <v>195.2003439125354</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.2355008891968</v>
+        <v>176.5706970549816</v>
       </c>
       <c r="AD2" t="n">
-        <v>100379.2792102422</v>
+        <v>142664.8516178716</v>
       </c>
       <c r="AE2" t="n">
-        <v>137343.3582366521</v>
+        <v>195200.3439125354</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.491394289383684e-06</v>
+        <v>5.090055863665844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.919270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>124235.5008891968</v>
+        <v>176570.6970549816</v>
       </c>
     </row>
     <row r="3">
@@ -4179,28 +4179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.34231146000525</v>
+        <v>119.2390420697661</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.7691155765905</v>
+        <v>163.1481178150552</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.624835072474</v>
+        <v>147.5774904306528</v>
       </c>
       <c r="AD3" t="n">
-        <v>85342.31146000525</v>
+        <v>119239.0420697661</v>
       </c>
       <c r="AE3" t="n">
-        <v>116769.1155765905</v>
+        <v>163148.1178150552</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.077548810664625e-06</v>
+        <v>5.944602503423045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.643229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>105624.835072474</v>
+        <v>147577.4904306528</v>
       </c>
     </row>
     <row r="4">
@@ -4285,28 +4285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.89310041446582</v>
+        <v>117.6192388236345</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.7862410894054</v>
+        <v>160.9318315530232</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.8312033433634</v>
+        <v>145.5727234188912</v>
       </c>
       <c r="AD4" t="n">
-        <v>83893.10041446582</v>
+        <v>117619.2388236345</v>
       </c>
       <c r="AE4" t="n">
-        <v>114786.2410894054</v>
+        <v>160931.8315530232</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.192243181781163e-06</v>
+        <v>6.111813854488825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>103831.2033433634</v>
+        <v>145572.7234188912</v>
       </c>
     </row>
   </sheetData>
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.21696744679157</v>
+        <v>99.95841537096636</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.07395261463851</v>
+        <v>136.7675137645531</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.9047894177605</v>
+        <v>123.7146142053119</v>
       </c>
       <c r="AD2" t="n">
-        <v>70216.96744679158</v>
+        <v>99958.41537096637</v>
       </c>
       <c r="AE2" t="n">
-        <v>96073.95261463852</v>
+        <v>136767.5137645531</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.954634533040195e-06</v>
+        <v>7.938488354077403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>86904.78941776049</v>
+        <v>123714.6142053119</v>
       </c>
     </row>
   </sheetData>
@@ -4879,28 +4879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.26611618277765</v>
+        <v>125.1137161246482</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.2425706549892</v>
+        <v>171.1861060292687</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.1941568942711</v>
+        <v>154.8483443310917</v>
       </c>
       <c r="AD2" t="n">
-        <v>92266.11618277765</v>
+        <v>125113.7161246482</v>
       </c>
       <c r="AE2" t="n">
-        <v>126242.5706549892</v>
+        <v>171186.1060292687</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.041983917540465e-06</v>
+        <v>6.001712322866694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>114194.1568942711</v>
+        <v>154848.3443310917</v>
       </c>
     </row>
     <row r="3">
@@ -4985,28 +4985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.07604813852883</v>
+        <v>104.7757761129983</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.5635817690094</v>
+        <v>143.3588392587543</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.10698729845593</v>
+        <v>129.6768728453322</v>
       </c>
       <c r="AD3" t="n">
-        <v>80076.04813852883</v>
+        <v>104775.7761129983</v>
       </c>
       <c r="AE3" t="n">
-        <v>109563.5817690094</v>
+        <v>143358.8392587543</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.485738870068127e-06</v>
+        <v>6.660618845319904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>99106.98729845593</v>
+        <v>129676.8728453322</v>
       </c>
     </row>
   </sheetData>
@@ -5282,28 +5282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.34056033913416</v>
+        <v>129.6893334796999</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.8174049015034</v>
+        <v>177.4466675564383</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.2369367846287</v>
+        <v>160.5114066528635</v>
       </c>
       <c r="AD2" t="n">
-        <v>96340.56033913416</v>
+        <v>129689.3334796999</v>
       </c>
       <c r="AE2" t="n">
-        <v>131817.4049015034</v>
+        <v>177446.6675564383</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.749317511504094e-06</v>
+        <v>5.513155736706794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.463541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>119236.9367846287</v>
+        <v>160511.4066528635</v>
       </c>
     </row>
     <row r="3">
@@ -5388,28 +5388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.47440631760971</v>
+        <v>115.7378386036039</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.8451212377215</v>
+        <v>158.3576167704589</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.0753412459448</v>
+        <v>143.2441880822408</v>
       </c>
       <c r="AD3" t="n">
-        <v>82474.40631760971</v>
+        <v>115737.8386036039</v>
       </c>
       <c r="AE3" t="n">
-        <v>112845.1212377215</v>
+        <v>158357.6167704589</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.291508804882323e-06</v>
+        <v>6.310416846311114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>102075.3412459448</v>
+        <v>143244.1880822408</v>
       </c>
     </row>
     <row r="4">
@@ -5494,28 +5494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.1046413912154</v>
+        <v>115.3680736772096</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.3391925525518</v>
+        <v>157.8516880852892</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.6176976844121</v>
+        <v>142.7865445207082</v>
       </c>
       <c r="AD4" t="n">
-        <v>82104.64139121539</v>
+        <v>115368.0736772096</v>
       </c>
       <c r="AE4" t="n">
-        <v>112339.1925525518</v>
+        <v>157851.6880852892</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.329851964729643e-06</v>
+        <v>6.366798257335147e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.330729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>101617.6976844122</v>
+        <v>142786.5445207082</v>
       </c>
     </row>
   </sheetData>
@@ -5791,28 +5791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.2393420890608</v>
+        <v>155.9787259301139</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.9390636133759</v>
+        <v>213.4169741132165</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.1518968404992</v>
+        <v>193.0487576365166</v>
       </c>
       <c r="AD2" t="n">
-        <v>113239.3420890608</v>
+        <v>155978.7259301139</v>
       </c>
       <c r="AE2" t="n">
-        <v>154939.0636133759</v>
+        <v>213416.9741132165</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.257489147035732e-06</v>
+        <v>4.712845738692361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.401041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>140151.8968404992</v>
+        <v>193048.7576365166</v>
       </c>
     </row>
     <row r="3">
@@ -5897,28 +5897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.1129432936102</v>
+        <v>122.4409241269265</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.5600162829767</v>
+        <v>167.5290741027267</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.0539375360064</v>
+        <v>151.5403343989412</v>
       </c>
       <c r="AD3" t="n">
-        <v>88112.94329361019</v>
+        <v>122440.9241269265</v>
       </c>
       <c r="AE3" t="n">
-        <v>120560.0162829767</v>
+        <v>167529.0741027267</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.881289695643964e-06</v>
+        <v>5.615343222061571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>109053.9375360064</v>
+        <v>151540.3343989412</v>
       </c>
     </row>
     <row r="4">
@@ -6003,28 +6003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.71573905051865</v>
+        <v>120.0437198838349</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.2800556803932</v>
+        <v>164.2491135001433</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.0870117698789</v>
+        <v>148.5734086328136</v>
       </c>
       <c r="AD4" t="n">
-        <v>85715.73905051865</v>
+        <v>120043.7198838349</v>
       </c>
       <c r="AE4" t="n">
-        <v>117280.0556803932</v>
+        <v>164249.1135001433</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.068643965947865e-06</v>
+        <v>5.886402229343621e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>106087.0117698789</v>
+        <v>148573.4086328136</v>
       </c>
     </row>
     <row r="5">
@@ -6109,28 +6109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.72931549188927</v>
+        <v>120.0572963252055</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.2986315664268</v>
+        <v>164.2676893861769</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.1038147994209</v>
+        <v>148.5902116623556</v>
       </c>
       <c r="AD5" t="n">
-        <v>85729.31549188927</v>
+        <v>120057.2963252055</v>
       </c>
       <c r="AE5" t="n">
-        <v>117298.6315664268</v>
+        <v>164267.6893861769</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.069232168479273e-06</v>
+        <v>5.887253224594414e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>106103.8147994209</v>
+        <v>148590.2116623556</v>
       </c>
     </row>
   </sheetData>
@@ -6406,28 +6406,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.07280119392649</v>
+        <v>112.4560381267218</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.5591391561594</v>
+        <v>153.8673125751723</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.1029686823411</v>
+        <v>139.1824322171695</v>
       </c>
       <c r="AD2" t="n">
-        <v>80072.8011939265</v>
+        <v>112456.0381267218</v>
       </c>
       <c r="AE2" t="n">
-        <v>109559.1391561594</v>
+        <v>153867.3125751723</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.38334911560948e-06</v>
+        <v>6.582407924853856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.565104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>99102.9686823411</v>
+        <v>139182.4322171695</v>
       </c>
     </row>
     <row r="3">
@@ -6512,28 +6512,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.22205037851899</v>
+        <v>102.5095675866665</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.0268602411567</v>
+        <v>140.2581127749647</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.81236691290964</v>
+        <v>126.8720753452575</v>
       </c>
       <c r="AD3" t="n">
-        <v>78222.05037851898</v>
+        <v>102509.5675866665</v>
       </c>
       <c r="AE3" t="n">
-        <v>107026.8602411567</v>
+        <v>140258.1127749647</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.617931396626954e-06</v>
+        <v>6.934676526982986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>96812.36691290964</v>
+        <v>126872.0753452575</v>
       </c>
     </row>
   </sheetData>
@@ -6809,28 +6809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.04059096053128</v>
+        <v>98.61525644532333</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6738471093844</v>
+        <v>134.9297444664995</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.87479924494002</v>
+        <v>122.0522390297386</v>
       </c>
       <c r="AD2" t="n">
-        <v>75040.59096053128</v>
+        <v>98615.25644532332</v>
       </c>
       <c r="AE2" t="n">
-        <v>102673.8471093844</v>
+        <v>134929.7444664995</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.838167365466014e-06</v>
+        <v>7.420523467329169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92874.79924494002</v>
+        <v>122052.2390297386</v>
       </c>
     </row>
     <row r="3">
@@ -6915,28 +6915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.14511654400967</v>
+        <v>98.71978202880172</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.8168636240427</v>
+        <v>135.0727609811578</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.00416646416436</v>
+        <v>122.1816062489629</v>
       </c>
       <c r="AD3" t="n">
-        <v>75145.11654400967</v>
+        <v>98719.78202880171</v>
       </c>
       <c r="AE3" t="n">
-        <v>102816.8636240427</v>
+        <v>135072.7609811578</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.834959119581848e-06</v>
+        <v>7.415602830634716e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>93004.16646416436</v>
+        <v>122181.6062489629</v>
       </c>
     </row>
   </sheetData>
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.81435691953406</v>
+        <v>95.81922669835903</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.62781547997928</v>
+        <v>131.1040932145782</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.11947659911212</v>
+        <v>118.5917025639642</v>
       </c>
       <c r="AD2" t="n">
-        <v>72814.35691953407</v>
+        <v>95819.22669835904</v>
       </c>
       <c r="AE2" t="n">
-        <v>99627.81547997928</v>
+        <v>131104.0932145782</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.937772605846809e-06</v>
+        <v>7.715172297265983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>90119.47659911212</v>
+        <v>118591.7025639642</v>
       </c>
     </row>
   </sheetData>
@@ -11866,28 +11866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.75691585231962</v>
+        <v>97.92394048897803</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.07624561015268</v>
+        <v>133.9838554763208</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.09774076598275</v>
+        <v>121.1966243572187</v>
       </c>
       <c r="AD2" t="n">
-        <v>68756.91585231962</v>
+        <v>97923.94048897803</v>
       </c>
       <c r="AE2" t="n">
-        <v>94076.24561015268</v>
+        <v>133983.8554763208</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.857627934470295e-06</v>
+        <v>7.916360308264837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>85097.74076598274</v>
+        <v>121196.6243572187</v>
       </c>
     </row>
   </sheetData>
@@ -12163,28 +12163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.29602578427387</v>
+        <v>127.3995569951376</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.0199825250462</v>
+        <v>174.3136943524527</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.7064964735727</v>
+        <v>157.6774400143098</v>
       </c>
       <c r="AD2" t="n">
-        <v>94296.02578427386</v>
+        <v>127399.5569951376</v>
       </c>
       <c r="AE2" t="n">
-        <v>129019.9825250462</v>
+        <v>174313.6943524527</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.899723799120291e-06</v>
+        <v>5.761377084719196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.216145833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>116706.4964735727</v>
+        <v>157677.4400143098</v>
       </c>
     </row>
     <row r="3">
@@ -12269,28 +12269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.18495128938009</v>
+        <v>114.2031416456722</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.0808319813577</v>
+        <v>156.2577766865665</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.4794332800122</v>
+        <v>141.3447537888105</v>
       </c>
       <c r="AD3" t="n">
-        <v>81184.9512893801</v>
+        <v>114203.1416456722</v>
       </c>
       <c r="AE3" t="n">
-        <v>111080.8319813577</v>
+        <v>156257.7766865665</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.386912308487543e-06</v>
+        <v>6.481140036762151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>100479.4332800122</v>
+        <v>141344.7537888105</v>
       </c>
     </row>
     <row r="4">
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.2629673979046</v>
+        <v>114.2811577541968</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.1875770628687</v>
+        <v>156.3645217680775</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.5759907607615</v>
+        <v>141.4413112695597</v>
       </c>
       <c r="AD4" t="n">
-        <v>81262.96739790461</v>
+        <v>114281.1577541968</v>
       </c>
       <c r="AE4" t="n">
-        <v>111187.5770628687</v>
+        <v>156364.5217680775</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.3797727527891e-06</v>
+        <v>6.470592194218696e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.317708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>100575.9907607615</v>
+        <v>141441.3112695597</v>
       </c>
     </row>
   </sheetData>
@@ -12672,28 +12672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.7915029609418</v>
+        <v>144.907523832319</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.5898221272445</v>
+        <v>198.268866976056</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.1223022611132</v>
+        <v>179.34636458402</v>
       </c>
       <c r="AD2" t="n">
-        <v>110791.5029609418</v>
+        <v>144907.523832319</v>
       </c>
       <c r="AE2" t="n">
-        <v>151589.8221272445</v>
+        <v>198268.866976056</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391531248554655e-06</v>
+        <v>4.925076594687978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>137122.3022611132</v>
+        <v>179346.36458402</v>
       </c>
     </row>
     <row r="3">
@@ -12778,28 +12778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.92036981061025</v>
+        <v>121.0363011734364</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.9282846309081</v>
+        <v>165.6072070101713</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.577936062661</v>
+        <v>149.8018876043412</v>
       </c>
       <c r="AD3" t="n">
-        <v>86920.36981061025</v>
+        <v>121036.3011734364</v>
       </c>
       <c r="AE3" t="n">
-        <v>118928.2846309081</v>
+        <v>165607.2070101713</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.953049957569409e-06</v>
+        <v>5.740496665615095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>107577.936062661</v>
+        <v>149801.8876043412</v>
       </c>
     </row>
     <row r="4">
@@ -12884,28 +12884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.60075824042296</v>
+        <v>118.5460974026569</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.7544897465394</v>
+        <v>162.2000003509557</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.7070437076063</v>
+        <v>146.7198599666355</v>
       </c>
       <c r="AD4" t="n">
-        <v>84600.75824042296</v>
+        <v>118546.0974026569</v>
       </c>
       <c r="AE4" t="n">
-        <v>115754.4897465394</v>
+        <v>162200.0003509557</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.150550623104404e-06</v>
+        <v>6.027301012671085e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>104707.0437076063</v>
+        <v>146719.8599666355</v>
       </c>
     </row>
   </sheetData>
@@ -13181,28 +13181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.38333472877638</v>
+        <v>109.8763137255098</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7745601369993</v>
+        <v>150.3376198400275</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.06133895904185</v>
+        <v>135.9896084027109</v>
       </c>
       <c r="AD2" t="n">
-        <v>74383.33472877638</v>
+        <v>109876.3137255098</v>
       </c>
       <c r="AE2" t="n">
-        <v>101774.5601369993</v>
+        <v>150337.6198400275</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.50238121719166e-06</v>
+        <v>7.505201241499765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.815104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>92061.33895904185</v>
+        <v>135989.6084027109</v>
       </c>
     </row>
   </sheetData>
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.38740359537836</v>
+        <v>100.2151160313767</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.5166155735612</v>
+        <v>137.1187429329602</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.5416964732382</v>
+        <v>124.0323225548396</v>
       </c>
       <c r="AD2" t="n">
-        <v>76387.40359537836</v>
+        <v>100215.1160313767</v>
       </c>
       <c r="AE2" t="n">
-        <v>104516.6155735612</v>
+        <v>137118.7429329602</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.72832451068276e-06</v>
+        <v>7.196068382457783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>94541.6964732382</v>
+        <v>124032.3225548396</v>
       </c>
     </row>
     <row r="3">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.19852391553376</v>
+        <v>100.0262363515321</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.2581820628146</v>
+        <v>136.8603094222136</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.30792749404343</v>
+        <v>123.7985535756449</v>
       </c>
       <c r="AD3" t="n">
-        <v>76198.52391553376</v>
+        <v>100026.2363515321</v>
       </c>
       <c r="AE3" t="n">
-        <v>104258.1820628146</v>
+        <v>136860.3094222136</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.763283720019733e-06</v>
+        <v>7.249273034637883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>94307.92749404343</v>
+        <v>123798.5535756449</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.98575227307718</v>
+        <v>114.6506368852015</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.1765232160975</v>
+        <v>156.8700594153868</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.4705532811211</v>
+        <v>141.8986011133365</v>
       </c>
       <c r="AD2" t="n">
-        <v>81985.75227307719</v>
+        <v>114650.6368852015</v>
       </c>
       <c r="AE2" t="n">
-        <v>112176.5232160975</v>
+        <v>156870.0594153868</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.213089109418275e-06</v>
+        <v>6.289765786315438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>101470.5532811211</v>
+        <v>141898.6011133365</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.08820752227692</v>
+        <v>103.5869604899212</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.211974657402</v>
+        <v>141.7322492764174</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.88437567258741</v>
+        <v>128.2055223279755</v>
       </c>
       <c r="AD3" t="n">
-        <v>79088.20752227692</v>
+        <v>103586.9604899212</v>
       </c>
       <c r="AE3" t="n">
-        <v>108211.974657402</v>
+        <v>141732.2492764174</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.553520172749384e-06</v>
+        <v>6.797998961339511e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>97884.37567258741</v>
+        <v>128205.5223279755</v>
       </c>
     </row>
   </sheetData>
